--- a/Documentation/GCA_Improvement_List_V2p2_rev2.xlsx
+++ b/Documentation/GCA_Improvement_List_V2p2_rev2.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="32">
   <si>
     <t>Category</t>
   </si>
@@ -39,9 +39,6 @@
     <t>#</t>
   </si>
   <si>
-    <t>Speed optimization</t>
-  </si>
-  <si>
     <t>Status</t>
   </si>
   <si>
@@ -103,9 +100,6 @@
   </si>
   <si>
     <t>Feasibility</t>
-  </si>
-  <si>
-    <t>Current version allows to plot at either fixed Pin, MaxGain and Compression, but not at fixed Pout.</t>
   </si>
   <si>
     <t xml:space="preserve">The ZVA needs to communicate with one or more Keysight 34465A DMM to measure current.
@@ -129,7 +123,10 @@
     <t>This path will be saved in the config file (if there is such thing). When the user select the export data option, this is the default path to be used. It is also the path to be used for item number 4.</t>
   </si>
   <si>
-    <t>Output files could be named PA1_Comp.csv and PA1_Data.csv, for instance.</t>
+    <t>Output files could be named PA1_Comp.csv and PA1_Data.csv, for instance. Give the user the option of exporting whatever data file he wants.</t>
+  </si>
+  <si>
+    <t>Current version allows to plot at either fixed Pin, MaxGain and Compression, but not at fixed Pout. Puts zeros in the datafile if data doesn't exist at compression or at desired Pout.</t>
   </si>
 </sst>
 </file>
@@ -196,7 +193,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -248,6 +245,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -532,7 +532,7 @@
   <dimension ref="A1:N10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="G9" sqref="G9"/>
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -557,19 +557,19 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="201.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -577,18 +577,20 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="D2" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D2" s="9" t="s">
+      <c r="E2" s="8"/>
+      <c r="F2" s="18">
+        <v>42811</v>
+      </c>
+      <c r="G2" s="5" t="s">
         <v>25</v>
-      </c>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="5" t="s">
-        <v>27</v>
       </c>
       <c r="H2" s="12"/>
       <c r="I2" s="14"/>
@@ -602,18 +604,20 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D3" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E3" s="8"/>
-      <c r="F3" s="8"/>
+      <c r="F3" s="18">
+        <v>42811</v>
+      </c>
       <c r="G3" s="5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="H3" s="12"/>
     </row>
@@ -622,18 +626,18 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D4" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E4" s="8"/>
       <c r="F4" s="8"/>
       <c r="G4" s="5" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="H4" s="12"/>
       <c r="I4" s="14"/>
@@ -647,18 +651,18 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="C5" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E5" s="8"/>
       <c r="F5" s="8"/>
       <c r="G5" s="5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="H5" s="12"/>
       <c r="I5" s="14"/>
@@ -672,13 +676,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D6" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E6" s="8"/>
       <c r="F6" s="8"/>
@@ -695,18 +699,18 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C7" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D7" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E7" s="8"/>
       <c r="F7" s="8"/>
       <c r="G7" s="5" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="H7" s="12"/>
       <c r="I7" s="14"/>
@@ -720,18 +724,18 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C8" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D8" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="5" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="H8" s="12"/>
       <c r="I8" s="14"/>
@@ -745,13 +749,13 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C9" s="9" t="s">
         <v>2</v>
       </c>
       <c r="D9" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E9" s="8"/>
       <c r="F9" s="8"/>
@@ -768,13 +772,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="9" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D10" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E10" s="8"/>
       <c r="F10" s="8"/>
@@ -794,10 +798,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:N3"/>
   <sheetViews>
     <sheetView zoomScale="75" zoomScaleNormal="75" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,27 +826,27 @@
         <v>0</v>
       </c>
       <c r="D1" s="2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="E1" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G1" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="H1" s="7" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C2" s="9" t="s">
         <v>2</v>
@@ -851,18 +855,18 @@
       <c r="E2" s="8"/>
       <c r="F2" s="8"/>
       <c r="G2" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="13" t="s">
         <v>13</v>
-      </c>
-      <c r="H2" s="13" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="3" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="C3" s="9" t="s">
         <v>2</v>
@@ -872,27 +876,11 @@
       <c r="F3" s="8"/>
       <c r="G3" s="5"/>
       <c r="H3" s="12"/>
-    </row>
-    <row r="4" spans="1:14" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="9" t="s">
-        <v>22</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="D4" s="9"/>
-      <c r="E4" s="8"/>
-      <c r="F4" s="8"/>
-      <c r="G4" s="5"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="9"/>
-      <c r="J4" s="9"/>
-      <c r="K4" s="8"/>
-      <c r="M4" s="5"/>
-      <c r="N4" s="12"/>
+      <c r="I3" s="9"/>
+      <c r="J3" s="9"/>
+      <c r="K3" s="8"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
